--- a/completesensory.xlsx
+++ b/completesensory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4710FA7F-3EC1-4FE4-B265-7AF320316488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4710FA7F-3EC1-4FE4-B265-7AF320316488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D416CAA9-AF7A-4D61-9086-9DAD76325B88}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9F603DF4-53B7-4A5E-A2ED-6555A6DCC329}"/>
+    <workbookView xWindow="21048" yWindow="4452" windowWidth="24168" windowHeight="14388" xr2:uid="{9F603DF4-53B7-4A5E-A2ED-6555A6DCC329}"/>
   </bookViews>
   <sheets>
     <sheet name="sensory complete" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>study</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Ropi high and ropi low</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -464,96 +467,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D19B54-8320-4CF1-A420-DD5E55002F81}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2016</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>46</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>44</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>46</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>44</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.68</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.84</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.94</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2014</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -565,27 +576,31 @@
         <v>25</v>
       </c>
       <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
         <v>15.12</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.52</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.42</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Chen 2013</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2013</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -597,27 +612,31 @@
         <v>20</v>
       </c>
       <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Gadsden 2011</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2011</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -629,114 +648,129 @@
         <v>21</v>
       </c>
       <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>11.3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Freitag 2006</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2006</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>40</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>53</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>34.25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8.15</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.09</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Keckeis 1994</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1994</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>42</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>43.7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>33.799999999999997</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Valery 2013</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2013</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>37.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8.7100000000000009</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
     </row>
